--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/54_Kütahya_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/54_Kütahya_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20181530-3A6A-4677-B396-1EE146E04CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11FFC824-F335-4595-9268-C17B8C4CEB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="680" xr2:uid="{4DFCDFDA-2A04-4684-BA66-412A95DA7F72}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="680" xr2:uid="{5FB57A66-1246-4D82-9D6D-EF4DD0CD6A73}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{39EBDDF2-A669-4359-8605-8C51E9BB9FCC}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D6F548B8-847D-4F6E-A10D-AB492890740B}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{19020FC7-4819-4114-8AB1-94E250CD9C92}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{FD406EE7-43A2-49E2-978A-436C7B353335}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{3BA43E5E-53AC-4D51-9475-587A98F985DD}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{D0D6808C-7141-41A3-86D2-23D922190E08}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A92055FF-BE99-4644-9024-F689441CA799}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{568E4DB7-5E10-4BA8-BC90-FE38EF730A55}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D2CFCB2B-8EE1-44DD-B8B7-0B1363953994}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{52605341-A266-4C2C-82AA-2BEFE92E6FFC}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{4E898BA4-85AB-470E-AEA2-17A9AFA424E7}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{FDDCE895-7FCF-4FE7-9A66-B716A955D296}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{1384E69A-E548-450D-A5B9-37C4A86FC022}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{3FD13CA9-9BF1-4022-BF15-00EBB64BDEDF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8402EE8-800F-401A-97F0-01CF2EE9C529}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CBA752-46D5-4FA2-AB4B-842237CB0738}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2552,18 +2552,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5E041F49-CD4A-4975-BDBF-631464187378}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FD630213-3EB3-44BE-B0EB-3049DEB78933}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AE9102CD-A29E-48EF-B3A2-7D1C5303288A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{936B0616-A090-4CA8-807B-6CA6D175B2A5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BE01D49E-BB9C-4481-AB51-88771695B87C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9DDDB5B3-C3E8-42D8-8BB7-05B99B17EF6B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{015293A9-586D-4DFD-9C98-9AEFC2BC931A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3A5CD307-CE39-44F4-B342-811B2A917D3A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7EF7537E-C2AA-4FBC-BC46-5892819B0B26}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9C0B5119-9AC6-44F9-956C-410A557BAEAB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2016FF58-1C37-423C-A1FA-C7ADFA316449}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EFF61395-A7C7-416F-9D29-00A5BDA2E84B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A5E051A-AAC7-42A7-BCAC-EE10059CDB68}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{22DAE820-B651-43B7-8C92-84D865CB4BC8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C5B665FA-DCBC-4936-A251-8BC85728893F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EB8E0364-69D8-4116-B589-9DD3759CE18C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE5EFABC-F9F3-4874-921A-F9A78C7E19AC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BD6C9FA8-8173-4260-BED7-627092971E81}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{77DB0B2A-BD86-4EA1-85AD-0E6E57920D9B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{022C99DF-91FD-4AB9-8EA4-071E427638B0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B1FB8A84-BD51-4696-8718-C456B5B5BD6F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5E824B04-1C86-4891-9C9B-90C8BB5381AE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CFEE73D4-B80F-46F6-AF6C-30BD266F8124}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3DA68250-1EC4-454F-B9FB-8307F39D4B74}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2576,7 +2576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69F4E4B-CDF6-4CB0-807D-A89E720FAB38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DE1E6E-E463-4114-9A3A-615938AB9531}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -3804,18 +3804,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B0E87877-0E3A-487A-BE1E-B3D1667555D7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D93D9CD-6B0E-4CC8-AD24-E7BC2CAADF6F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5DF0D76C-B009-41B3-B2FC-11C99826120F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DCF911D5-062F-4979-B1D2-E211358A5501}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D5007F1-E51A-4D0D-B86C-1BE4670CF625}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2CADB262-DBE4-4EF2-80CC-C4F162ED3FA3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{331D15FF-A200-4FCE-8556-C028EE668F02}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{32BDF2C0-4550-454D-B85B-E9A59CF2BB3F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{99E27A88-9885-4C44-BAE6-7C246DFE4F9D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5649F111-CE90-4A74-9A5B-49D339356513}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F07369FC-CD8C-4494-86AC-CB551A31FBBB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{91E4A272-25C7-4137-92B8-7CC0BAD24D99}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B369F8C-BFA0-4F87-BE20-7BB0BE2EDD7E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD3E9C1B-9D5D-4C53-8FB0-999E57902882}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FE5D5BB1-D51F-43DA-BB9D-9B4D5CFD5D23}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{229E0DB7-C31F-44EF-8995-CB807881BDE9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D76B70F3-886A-422D-B347-C4DCCC70F3FB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DFA2C3C4-0787-4BB1-8F71-AEB500964B65}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A4508B1-F656-4225-A827-90D5A44E329A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9CCB7DAA-EA36-47E1-BB4B-58B3FC75BFC0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D2C5A658-E45D-4219-982D-394FDB5921F9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E1122278-3D55-4630-BD47-133DA3291110}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{68601E35-0765-463A-9F7D-5C96F99DC85C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CB7766FE-F224-49BC-8A98-4AD83781846A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3828,7 +3828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0233D97-3CF2-4D41-873A-9B2F2322A72F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48349ADE-29C1-4CBD-9281-AED79BBA53C1}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -5056,18 +5056,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{67F34B33-E950-4F9C-A543-E5FC25EDCE5C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F65EC21C-76C7-4A37-B296-D9390FF7CA4B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3524F1DE-3D60-4685-AC30-3266E2E408EE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{77DF52EA-603E-4AE2-A71F-AEAA370EB060}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3E83957D-B1E5-4360-B5D3-608DE09988AF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{83A0BF22-FB0C-47B2-ABAB-3A643A3C82F5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CA2898D1-5449-4C75-8AB6-0E5DE798DAE5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C1E4898-0199-4E70-BFCD-130CAD5E0A59}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{956CC289-0C9F-4024-B4C9-8501DBBC2CF9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6F4C8199-5A73-402B-A61B-C96C448F98ED}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8CD754E4-7B00-4642-827B-5423480A1E08}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{10100A41-3BEC-46CA-8C45-E9F4A0DA8449}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ABD4F0F6-E705-472F-A51D-8E7FFE88F9C9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F3933C5-231F-40B6-997A-8F3B63FB6920}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FAFFFC5D-9647-4D38-868F-0C53F190E6C4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0C188589-0F18-40AC-B739-F26FE51D4409}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3BDDD198-25DE-4EF0-9AA9-5F6694EAEE65}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{82A56AA2-5637-42B8-A2C9-6B3E08B2E930}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A3176A93-2EE4-42F6-A6C1-FE74ABF53DF2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4FE67953-339E-48A4-BFDD-4C13B8A86966}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FBBDC0EB-D0AD-49D4-83DB-BD097A532BB4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{97A7518E-9980-4D77-A098-FD5756B5A05F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9AF9BC11-BE49-48EC-AE7C-247EC4B6C839}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8312DA8D-4043-41B1-B206-D6F8A1749E05}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5080,7 +5080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D473A50E-9CB6-4223-9AD8-700CABFCA3A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DDD5EA-A4E1-4282-A427-C058F3086809}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -6304,18 +6304,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9AAA999A-476D-45C2-82EB-8BD27AE3B40B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C96AF925-3464-477C-97C5-EB53BCED1D3D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EBC16490-F010-4550-A92E-FE42B139A820}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6B765C5E-1B6E-4F00-86B0-8F5D8F2D5924}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{56099F0E-9959-419B-B044-D79A91E005B7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CAD7972F-8AD3-4D02-B9F3-4B2E37EFB391}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{174BBBF8-4BF6-424B-8B26-36D3F5F92399}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B7B60AE-C120-4FA0-8B29-FD84965983FC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{86498FC1-000E-4D38-ABCB-E59B8654A929}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B3D1909F-499E-450B-9FE5-BC54A8F24C85}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F91D1B4-AB26-4DFF-B799-F26BA8A893B4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C0ACE5A8-C90C-424C-A4CD-B1F381B2235A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8C96B95A-9971-4FEE-A46C-813E1C03F795}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB5D5DD5-28AA-45EB-9DE7-207554A236D5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{27FA610E-7ADB-49E1-B8A0-67AF50901E03}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4E851B22-A305-4B6A-B02F-0ECF2AE96BC8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A142C1C8-9712-49D3-A79C-617483F7E8EA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B3FA4C07-29D3-41B1-B9EA-00F910210BBF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F0BE90AD-6317-4675-B7F7-F6FAF0E64267}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F7BAD71B-A9F5-464D-A210-59257A1D0B91}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{68B9269E-6E49-4B17-A7D4-E4AE93530E41}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{42368600-DA0D-4CDE-919D-69BA19AA71C5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8714574A-D687-4919-9CF5-E6B2CDC3E0E0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2660EE8F-7F24-45EA-B98D-834CAA7BFB35}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6328,7 +6328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9CF4AE-EE1C-4709-9BCA-44AEDC3A88F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0103D842-A884-49B6-B90C-C0EC17735DA1}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7567,18 +7567,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA09864A-FB8E-43E1-B72A-579402F52E2D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0278A6C3-EB09-4157-B4D0-AE7099FAB67D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C7886AC6-EB65-4809-ABD8-DCA59AE301FB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F7701C38-E575-448A-B5BD-22F128BDC8CC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{69A6057F-1E11-4B5C-8DA4-6502E3FDE7E4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FE5091A4-8568-417C-8713-9C3CEBD2ABC5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{84F75223-2412-454F-A737-5507FCD78B23}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EEFCD599-E483-4F9E-BF0D-4992A76AEC6A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{58697086-BFC1-4031-862F-4CFC5C1CDAA1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5E7F3109-16CB-4D08-B61C-9D14EE6D7A13}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4ED735E2-C662-49CA-A7FC-BD3EEF3E98B8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{17F33463-8AB0-4E14-A6AF-952AC177BA85}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C696D20E-B28A-45C3-B4D6-79B2FEEBF733}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{554D5B60-65BF-42FD-AC51-A9EDDC7C7D7C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0D3B2125-AA8B-43B4-B513-7DB5C4C5384F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D74F4D40-E169-4634-9806-A2FFCB819148}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AA424F58-6758-4B96-8C53-69788132519F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E33B512F-028F-4EFC-8484-A96FFB74229F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8B2C7F8C-0E21-4022-A57B-00D0825FB43A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB1273D0-A185-4FE6-9680-B3CE941AAF30}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B4E502E1-8552-4A0F-8FB4-DF5704CAFD51}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{48921384-81D2-4A64-B3E6-91041E69D0DA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36D68728-8DC5-4BB6-852E-95262AE16407}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{867F6C41-9B16-425A-B899-63AD3B0B65BC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7591,7 +7591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C1AD50-D7B8-47E8-AE71-D9915F2B67CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450E64D0-AC1E-4521-9D39-8AA0013FBF86}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8830,18 +8830,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2A3CC963-9EE9-4331-A7DD-C8FD81ADE406}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1D2D3E5-A731-48DC-B2E9-92E735EDDBD7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E82EECD0-B98C-4478-951C-156D82C92D48}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{03A2D0CD-D094-453D-AF04-424E833D88B5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{796DA19D-C2F6-4056-8541-6114E3C9B30A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4166D718-8CD0-4969-9679-9ED1EF3F0DF5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0DDC448E-5CAC-415E-A1FF-55C21F2EB0BA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1F6E94F4-3D4E-4B54-8287-4749042B46A7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9D190963-6249-493A-AB3F-24CA983F3EAA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{53B83D7A-498F-462D-8C6E-153414198761}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F575AB6F-41F0-4882-82B6-149C6FDDBA54}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9931847B-85D0-476E-B2F2-00A935B40042}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC9B4A9B-D926-46E6-A188-D070F6AD42F0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B0E67EF5-E4B5-4A80-8A2A-DAD60C0286BD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{917A7C33-FE72-4917-B289-DF4C8D430A45}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BA201443-F627-4FC7-8184-104E1A059B03}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CEA145C0-EA60-408B-BD68-C10D7ECFA749}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{941C6BFD-1D66-41B2-8298-C7CEBEE4A17B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{459FD14B-3E7E-45AF-9B88-8FEDB24B2CAF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{61D32981-E03D-443F-A0CB-EE83D88F448F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7C886FB1-D295-48FA-987C-AC6F3EF82084}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{55163AF8-0B04-44C1-956F-B66B2D9C7694}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{53F319F1-0298-46A1-B86F-7F51A1AF8D3E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1B1ED705-790A-449B-A755-E5DE02409997}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8854,7 +8854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D75C78F-A4D3-4013-A52E-51FA8602D96B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FE127B-0ED8-416B-9BC8-370DD0FB6F3A}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10093,18 +10093,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{103F840A-8021-4948-B407-15A05EBC4E14}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C67306C9-92CD-42B1-BDB8-A2FBCF67F8A2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B560C0B3-2643-41A9-9FC1-57482A9D22B6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0784A53B-119A-4079-A4E1-4B2ABDE17486}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{86650173-6AB6-4868-B532-BAFBF7DCFAE8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{20F292B9-415C-4094-8AEF-1B9E7A437775}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C4DEBD28-CA7E-49AC-A8E1-027E6C2B14F9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{03D0030F-49F0-4036-B528-A3F9F429696C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{636A73E5-4F2C-472C-9589-C4208CFFE99C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EF8C6BE8-77FA-4C86-BE4A-3842BD96A5E7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{82F1B038-EE20-401A-AEFB-BC0BF8CD1E6F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D0A7D5D1-9180-4769-BDFB-4E7156001771}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0A7E3254-73BC-4DBA-861F-D1D3BE34F3D9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3274F8BB-1EC8-4CC7-A8F3-0C1B0D330134}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{14E65230-689D-4B54-9813-43BD861236BE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{63C8DDAD-67F4-4FBE-92E4-9460F2865175}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CAA3965D-4658-44AD-96C2-49E1DCD72D42}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5BAF94B9-242E-40CD-B6F1-A6B8C6DE2F0A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3A7C8001-C5EA-4929-AB44-07635ADBFC31}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BB29B5C3-C9F8-4023-9E05-45C81B45B480}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5BA6F414-B349-4C1C-8F0A-1572924E7023}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{89DF3C35-98AA-419D-8A9F-BE1C5ACB8421}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{33A497BF-09FC-489F-AFC7-280DF29CF811}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6458499D-A105-48BA-AC32-38AFEE60BDC6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10117,7 +10117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00179C3-13C0-43BE-A84A-00D5C1CF378A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910EA8EB-0703-49A2-8473-B1A8A5A7E95C}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11356,18 +11356,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E4E6F5B-94CC-44C1-AD9E-8992D486E9CC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0831DDC6-9536-4D6A-953A-FBFEC88A9A44}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CD34A1E0-3DC6-4559-88F8-CBCB93E8B0D5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5C21A344-8947-4BD3-9429-6E0819F56771}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD806C65-839E-4DC0-80FE-ADA84717F095}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F5B796DE-0482-421C-93DF-CAF167BD91CC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D8981D7E-A53F-49F5-8E3C-917CEFE8977C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{40C6EFFE-A72D-45EC-8A04-B8F45419353B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C31B83EB-4CBF-4E22-81BE-536A317A5017}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FBF76724-96F5-48D7-9592-680488131C2D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{90E113D1-DAA6-41E7-80B5-4336B556DF3A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{91C4E044-1B30-49A5-98F0-2DD75B382B17}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC361F13-F3B1-45BE-BE2C-7407B557C726}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7964DB17-9F36-4307-88E0-18244ABF44E8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{91E126B5-65C2-4121-BB90-8BD07852B0B9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CFB20423-8809-4AED-B568-91FBC363C9D7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6CC1C8C1-9BBF-465A-8453-374C97ED4340}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0F166401-EE82-4120-AC3A-54DA62AC1AAB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89BBD490-6D92-44FA-BC6A-88B875C6ACE6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D01510B3-B46E-4BE2-8F49-9593DA1F0CDF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{57E48882-10EA-402A-B4E7-65E9D727E6D8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AB15C2D8-E6DA-41DA-BA32-C08E80BE4691}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDBCB38E-B522-48D4-A6FB-679D14A50EC2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{49EDB823-1CC9-42A4-881F-863175EFCD77}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11380,7 +11380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F1F437-7A6B-4B45-8C95-2E2B674C01B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F67F6E-0163-4DE1-ABEE-E299778A2063}">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12611,18 +12611,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5948404E-9E50-42B6-8FBE-60FFB6EC09E8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{348C8F7E-D550-4448-AE58-AA2D5130E3AE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AF2BCBD6-A335-4E3E-94CA-E68387357324}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{640BFEA2-6268-43E6-8C25-801F24BF591D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F59068E3-DA2E-4237-BC0B-FD3C910D2AE2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E955EDEF-332C-4172-A9FC-659B525E257D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{25612CB4-B45F-4B20-8486-751EB0B9B6A4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ECEE702E-AD4C-4272-9851-61FBBE1E39A2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{94F9D0E0-154C-4A35-A701-40F3C898A973}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{971D45CD-3DE0-450F-8AC7-AC505A451261}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{52D62894-A685-42A8-A6BD-5EFE0E499F24}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DB4DF8AF-354F-402A-BD61-011E16577917}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{31F70565-8479-4EC5-AFFC-74B7FB8FB2E8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F9D2BBB-7183-4CA9-9180-1880414E0B0D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E38DF0E4-F6CD-43B3-80B1-89F710F534C5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8E6E207B-8A42-43EF-B165-D85E370A53A9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{350860F4-7AC7-483B-93FC-3B93A09EDC2E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{047600B2-71D4-4067-90CC-A0E0E6328C46}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{51A04D1C-23A0-4929-BED8-88BE4F7DF871}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CA303F3-A2B0-4AB9-AF03-F7018113714F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{084400EF-93BC-49D3-B60A-FEE12067FF09}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5B7658C4-9347-4CC9-8420-9AF09D358E83}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E3711472-BACB-45C7-9486-2AAA28FEF4D1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C5107C5F-3BA8-4B14-A7CE-DE82E3380243}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12635,7 +12635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521BD693-6146-46E6-AE9E-BD1F82A2E61D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE64D9F-539B-4DEA-B006-443080F514EB}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -13867,18 +13867,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8968FA42-54CC-4682-BF46-FADDBDE29D0D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{64CBA7EB-28E0-459D-983A-1CD5BA04C927}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A64C307B-60F9-4B21-93DE-BCF8CBBC2E93}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5CE8A34B-2F9A-4A80-AA87-09C4B8B67C13}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{32FB9849-DCAA-4019-88B9-A276F3762B0D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{674A9713-0C1F-486E-BA90-D2390D9B63F5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F85DED92-2A53-4001-AA2F-CA7210BE1A14}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{06EDEB9E-3DF4-4510-811E-0970BB025DE3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FD5F079F-3189-4410-B221-1877899B0BBC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1BB2D689-5311-4810-862F-621A0D115F12}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A723C527-0293-4941-98FD-ABF87A188A35}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E0056FE9-8801-49AE-93AD-B28F268C5096}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E2AEE5E6-930B-4BCA-A99A-DECA00E92CAC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C5B7D352-69E8-4921-91E6-F89E11926233}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{70072C2E-2251-4C09-97D6-C668B73EA544}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{12F8B598-3F1A-4CA2-9FBA-BB2927B8EDE4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A3929ABB-9C2A-4A0C-BDD0-CBB57BAFA32E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{61918722-8FE7-405B-B203-39539C54BDB9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9E2145AF-109A-4F34-899B-2AA9D9EECA29}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8377E0A9-D3A2-4D6C-B14F-D0C4A542FCA2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{077F7671-89DB-427F-848C-47DC3B5368F7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0C23EC27-3E25-4959-BA62-7AD05C6E45F4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B046024-F5FD-4C59-BE27-52C7474B49DF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1E759339-5859-4E69-8B15-8EB0B0CDC0C9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13891,7 +13891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE85567-D9EF-42D6-9DB7-849456530CD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B30CC6D-2564-47D0-A40B-A5DD253C4FE9}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -15123,18 +15123,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{96EFD5E6-1EA2-4FA8-8FCC-5D9D3145D995}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A712EE75-2C07-4434-8254-A8E394EC253E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9C32EFB8-6DA0-435E-8E3E-1DBE2063227D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{647FED4C-C058-4D92-AE7D-C61D81D361A5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D26248F7-7A6E-4A5B-ABB4-4CD826B8498C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E4176113-FEC0-44C1-81A9-763E745A0E7F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89FDCA3E-643F-4D9B-A009-66826AD2E720}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{61D37443-11E4-4339-8C96-7BFA15D2C690}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{649D8F88-395E-417E-9E1B-63C013397428}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F3E9FE1F-F76E-4656-9E69-4A07DC444BC4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{72B18A66-2EF4-4FFD-8DF9-CFD71373D548}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F4082A51-04EA-4DF6-A8F6-F91E84123A65}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0860ED80-F2C2-46EF-9197-7642E43445C3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD6DD550-4532-4C83-AE17-91E2957019E8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{05F9AF35-1811-49FA-9F1F-F6AD311FD10E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{90A419ED-CD1C-4D33-8F87-60DF5CAE2C71}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C161A07B-BBC7-41B9-B4A9-F34EC9686B19}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{62AE6E38-C203-41B4-9483-44BB5671CC60}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DBC877FE-CA38-4E48-B218-AE896EDB4004}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A020AA6-4430-4148-8F0B-D7B65CE4FC04}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{85EDA288-2FB6-4175-AD51-C3E74F870384}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4EF9BB19-6CF4-427E-8812-44AD30E1873B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5A52ED59-2FA7-4263-B506-CA811C595170}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4CD621EC-408F-4E3B-93B5-D13E14C2245C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15147,7 +15147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE71231-5FF1-462D-A9F8-A48722BC46B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2998E6DE-16BB-4BBA-97E4-667FBB2B7AC8}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -16375,18 +16375,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5A082211-2606-473C-8107-2B5DF5054A03}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{13340D92-DD94-41BB-946C-E056B26EF7B0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B230ACE6-EA4B-4482-B1A9-C30A92CECE08}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E3BFFBA8-B5F2-4A5D-B720-83196EE5C74C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C5883722-C911-4092-BD27-2CA8927952F3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9567358B-3A83-4102-933A-F3DCECD69579}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E0D1EA13-2641-4016-83EB-E564DA41789C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0FC5B694-0549-42F1-9284-173DB17BBB62}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9769CAB3-A379-43A1-87F9-5CB9D3182A7C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{02A61151-B5DC-49B9-A226-468A02ED520D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4458816D-DE82-4BE2-A0A8-89B010A07636}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0EBA76D7-5635-49E5-B782-0B34279CF10A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C491A07-3F52-415D-864A-5B29675CBA67}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21E39383-ACAB-433B-B537-5E1D0920F691}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B4911170-A749-4AB0-A5E3-8BA3E5692520}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C40F9EF6-21B3-4A55-87DD-58B91E017EB2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1FADA6B9-1600-4FD4-B0E5-0C80A84BFBC1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CFAD5576-0DA1-4CE7-BC76-E41B540914C8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F1C27AC3-1B76-4777-84FC-AE733F8EB99E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{80EEE72A-6532-4C8F-9D7D-9BB7C93A5BF5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F68335F4-2DBE-4ECD-8DFC-B3F061E71BEF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4B50254E-13CB-4CA9-BD6E-1CD78CF9FBCE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B5529118-ABDF-49DB-81A3-80FD97CB0340}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{077DACE5-DFAB-4EF8-961C-58F0101288E4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
